--- a/Pilot_Input_Fuel_Prices.xlsx
+++ b/Pilot_Input_Fuel_Prices.xlsx
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
     <t>Dprice</t>
   </si>
   <si>
@@ -82,6 +73,15 @@
   </si>
   <si>
     <t>moz</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
   </si>
 </sst>
 </file>
@@ -501,37 +501,37 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8">
         <v>0.2</v>
@@ -570,7 +570,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,42 +578,42 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8">
         <v>0.2</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>0.63</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8">
         <v>0.11</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="16">
         <f>(C3-B3)/B3</f>
@@ -693,7 +693,7 @@
         <v>0.50000000000000011</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="16">
         <f>(F3-E3)/E3</f>
@@ -707,7 +707,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -718,7 +718,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
